--- a/Исходники/3.xlsx
+++ b/Исходники/3.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TsvetkovDS\Documents\Оперативная папка\CONCAT_YOUR_EXCELS\Исходники\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C13F55-93A7-411B-B55C-A66BE30DADC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BAB065-508F-47B5-A06B-6B0E18A378E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист3 (2)" sheetId="4" r:id="rId1"/>
+    <sheet name="Лист777" sheetId="4" r:id="rId1"/>
     <sheet name="Лист1" sheetId="1" r:id="rId2"/>
     <sheet name="Лист2" sheetId="2" r:id="rId3"/>
     <sheet name="Лист3" sheetId="3" r:id="rId4"/>
@@ -367,7 +367,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Исходники/3.xlsx
+++ b/Исходники/3.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TsvetkovDS\Documents\Оперативная папка\CONCAT_YOUR_EXCELS\Исходники\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BAB065-508F-47B5-A06B-6B0E18A378E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF4727B-75AA-4C7C-8726-2933361FF018}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист777" sheetId="4" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="1" r:id="rId2"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId3"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId4"/>
+    <sheet name="Лист1 (2)" sheetId="5" r:id="rId1"/>
+    <sheet name="Лист777" sheetId="4" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId3"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId4"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
   <si>
     <t>A</t>
   </si>
@@ -363,10 +364,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1565DC39-021E-44ED-8920-F3FF25685649}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FB7B1D3-60C9-4179-BBBC-40937893F248}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -422,7 +480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -479,7 +537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C727AB-9099-4DF9-B60E-ED78ADD8D7EE}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -536,7 +594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDE4816-365B-403A-9DA0-9167120A13ED}">
   <dimension ref="A1:D20"/>
   <sheetViews>
